--- a/data/residence_time/result/107.xlsx
+++ b/data/residence_time/result/107.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17680"/>
+    <workbookView windowWidth="18350" windowHeight="17680"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,9 +27,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>interval_index</t>
+  </si>
+  <si>
+    <t>second_time</t>
   </si>
   <si>
     <t>avg_frame_diff</t>
@@ -1183,15 +1186,18 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D74"/>
+  <dimension ref="A1:E74"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C74"/>
+      <selection activeCell="H61" sqref="H61"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelCol="4"/>
+  <cols>
+    <col min="2" max="2" width="12.8181818181818"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1204,1026 +1210,1321 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2">
         <v>0</v>
       </c>
       <c r="B2">
+        <f>A2*0.30387037</f>
+        <v>0</v>
+      </c>
+      <c r="C2">
         <v>48.49</v>
       </c>
-      <c r="C2">
+      <c r="D2">
         <v>300</v>
       </c>
-      <c r="D2">
+      <c r="E2">
         <v>19.396</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:5">
       <c r="A3">
         <v>750</v>
       </c>
       <c r="B3">
+        <f t="shared" ref="B3:B34" si="0">A3*0.30387037</f>
+        <v>227.9027775</v>
+      </c>
+      <c r="C3">
         <v>46.62</v>
       </c>
-      <c r="C3">
+      <c r="D3">
         <v>600</v>
       </c>
-      <c r="D3">
+      <c r="E3">
         <v>18.648</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:5">
       <c r="A4">
         <v>1500</v>
       </c>
       <c r="B4">
+        <f t="shared" si="0"/>
+        <v>455.805555</v>
+      </c>
+      <c r="C4">
         <v>49.85</v>
       </c>
-      <c r="C4">
+      <c r="D4">
         <v>900</v>
       </c>
-      <c r="D4">
+      <c r="E4">
         <v>19.94</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:5">
       <c r="A5">
         <v>2250</v>
       </c>
       <c r="B5">
+        <f t="shared" si="0"/>
+        <v>683.7083325</v>
+      </c>
+      <c r="C5">
         <v>49.82</v>
       </c>
-      <c r="C5">
+      <c r="D5">
         <v>1200</v>
       </c>
-      <c r="D5">
+      <c r="E5">
         <v>19.928</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:5">
       <c r="A6">
         <v>3000</v>
       </c>
       <c r="B6">
+        <f t="shared" si="0"/>
+        <v>911.61111</v>
+      </c>
+      <c r="C6">
         <v>54.56</v>
       </c>
-      <c r="C6">
+      <c r="D6">
         <v>1500</v>
       </c>
-      <c r="D6">
+      <c r="E6">
         <v>21.824</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:5">
       <c r="A7">
         <v>3750</v>
       </c>
       <c r="B7">
+        <f t="shared" si="0"/>
+        <v>1139.5138875</v>
+      </c>
+      <c r="C7">
         <v>51.42</v>
       </c>
-      <c r="C7">
+      <c r="D7">
         <v>1800</v>
       </c>
-      <c r="D7">
+      <c r="E7">
         <v>20.568</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:5">
       <c r="A8">
         <v>4500</v>
       </c>
       <c r="B8">
+        <f t="shared" si="0"/>
+        <v>1367.416665</v>
+      </c>
+      <c r="C8">
         <v>48.54</v>
       </c>
-      <c r="C8">
+      <c r="D8">
         <v>2100</v>
       </c>
-      <c r="D8">
+      <c r="E8">
         <v>19.416</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:5">
       <c r="A9">
         <v>5250</v>
       </c>
       <c r="B9">
+        <f t="shared" si="0"/>
+        <v>1595.3194425</v>
+      </c>
+      <c r="C9">
         <v>65.69</v>
       </c>
-      <c r="C9">
+      <c r="D9">
         <v>2400</v>
       </c>
-      <c r="D9">
+      <c r="E9">
         <v>26.276</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:5">
       <c r="A10">
         <v>6000</v>
       </c>
       <c r="B10">
+        <f t="shared" si="0"/>
+        <v>1823.22222</v>
+      </c>
+      <c r="C10">
         <v>51.7</v>
       </c>
-      <c r="C10">
+      <c r="D10">
         <v>2700</v>
       </c>
-      <c r="D10">
+      <c r="E10">
         <v>20.68</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:5">
       <c r="A11">
         <v>6750</v>
       </c>
       <c r="B11">
+        <f t="shared" si="0"/>
+        <v>2051.1249975</v>
+      </c>
+      <c r="C11">
         <v>49.2</v>
       </c>
-      <c r="C11">
+      <c r="D11">
         <v>3000</v>
       </c>
-      <c r="D11">
+      <c r="E11">
         <v>19.68</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:5">
       <c r="A12">
         <v>7500</v>
       </c>
       <c r="B12">
+        <f t="shared" si="0"/>
+        <v>2279.027775</v>
+      </c>
+      <c r="C12">
         <v>54.79</v>
       </c>
-      <c r="C12">
+      <c r="D12">
         <v>3300</v>
       </c>
-      <c r="D12">
+      <c r="E12">
         <v>21.916</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:5">
       <c r="A13">
         <v>8250</v>
       </c>
       <c r="B13">
+        <f t="shared" si="0"/>
+        <v>2506.9305525</v>
+      </c>
+      <c r="C13">
         <v>63.17</v>
       </c>
-      <c r="C13">
+      <c r="D13">
         <v>3600</v>
       </c>
-      <c r="D13">
+      <c r="E13">
         <v>25.268</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:5">
       <c r="A14">
         <v>9000</v>
       </c>
       <c r="B14">
+        <f t="shared" si="0"/>
+        <v>2734.83333</v>
+      </c>
+      <c r="C14">
         <v>54.58</v>
       </c>
-      <c r="C14">
+      <c r="D14">
         <v>3900</v>
       </c>
-      <c r="D14">
+      <c r="E14">
         <v>21.832</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:5">
       <c r="A15">
         <v>9750</v>
       </c>
       <c r="B15">
+        <f t="shared" si="0"/>
+        <v>2962.7361075</v>
+      </c>
+      <c r="C15">
         <v>51.65</v>
       </c>
-      <c r="C15">
+      <c r="D15">
         <v>4200</v>
       </c>
-      <c r="D15">
+      <c r="E15">
         <v>20.66</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:5">
       <c r="A16">
         <v>10500</v>
       </c>
       <c r="B16">
+        <f t="shared" si="0"/>
+        <v>3190.638885</v>
+      </c>
+      <c r="C16">
         <v>48.12</v>
       </c>
-      <c r="C16">
+      <c r="D16">
         <v>4500</v>
       </c>
-      <c r="D16">
+      <c r="E16">
         <v>19.248</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:5">
       <c r="A17">
         <v>11250</v>
       </c>
       <c r="B17">
+        <f t="shared" si="0"/>
+        <v>3418.5416625</v>
+      </c>
+      <c r="C17">
         <v>48.79</v>
       </c>
-      <c r="C17">
+      <c r="D17">
         <v>4800</v>
       </c>
-      <c r="D17">
+      <c r="E17">
         <v>19.516</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:5">
       <c r="A18">
         <v>12000</v>
       </c>
       <c r="B18">
+        <f t="shared" si="0"/>
+        <v>3646.44444</v>
+      </c>
+      <c r="C18">
         <v>38.76</v>
       </c>
-      <c r="C18">
+      <c r="D18">
         <v>5100</v>
       </c>
-      <c r="D18">
+      <c r="E18">
         <v>15.504</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:5">
       <c r="A19">
         <v>12750</v>
       </c>
       <c r="B19">
+        <f t="shared" si="0"/>
+        <v>3874.3472175</v>
+      </c>
+      <c r="C19">
         <v>35.23</v>
       </c>
-      <c r="C19">
+      <c r="D19">
         <v>5400</v>
       </c>
-      <c r="D19">
+      <c r="E19">
         <v>14.0919999999999</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:5">
       <c r="A20">
         <v>13500</v>
       </c>
       <c r="B20">
+        <f t="shared" si="0"/>
+        <v>4102.249995</v>
+      </c>
+      <c r="C20">
         <v>42.8</v>
       </c>
-      <c r="C20">
+      <c r="D20">
         <v>5700</v>
       </c>
-      <c r="D20">
+      <c r="E20">
         <v>17.12</v>
       </c>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" spans="1:5">
       <c r="A21">
         <v>14250</v>
       </c>
       <c r="B21">
+        <f t="shared" si="0"/>
+        <v>4330.1527725</v>
+      </c>
+      <c r="C21">
         <v>39.01</v>
       </c>
-      <c r="C21">
+      <c r="D21">
         <v>6000</v>
       </c>
-      <c r="D21">
+      <c r="E21">
         <v>15.604</v>
       </c>
     </row>
-    <row r="22" spans="1:4">
+    <row r="22" spans="1:5">
       <c r="A22">
         <v>15000</v>
       </c>
       <c r="B22">
+        <f t="shared" si="0"/>
+        <v>4558.05555</v>
+      </c>
+      <c r="C22">
         <v>40.53</v>
       </c>
-      <c r="C22">
+      <c r="D22">
         <v>6300</v>
       </c>
-      <c r="D22">
+      <c r="E22">
         <v>16.212</v>
       </c>
     </row>
-    <row r="23" spans="1:4">
+    <row r="23" spans="1:5">
       <c r="A23">
         <v>15750</v>
       </c>
       <c r="B23">
+        <f t="shared" si="0"/>
+        <v>4785.9583275</v>
+      </c>
+      <c r="C23">
         <v>40.36</v>
       </c>
-      <c r="C23">
+      <c r="D23">
         <v>6600</v>
       </c>
-      <c r="D23">
+      <c r="E23">
         <v>16.144</v>
       </c>
     </row>
-    <row r="24" spans="1:4">
+    <row r="24" spans="1:5">
       <c r="A24">
         <v>16500</v>
       </c>
       <c r="B24">
+        <f t="shared" si="0"/>
+        <v>5013.861105</v>
+      </c>
+      <c r="C24">
         <v>26.12</v>
       </c>
-      <c r="C24">
+      <c r="D24">
         <v>6900</v>
       </c>
-      <c r="D24">
+      <c r="E24">
         <v>10.448</v>
       </c>
     </row>
-    <row r="25" spans="1:4">
+    <row r="25" spans="1:5">
       <c r="A25">
         <v>17250</v>
       </c>
       <c r="B25">
+        <f t="shared" si="0"/>
+        <v>5241.7638825</v>
+      </c>
+      <c r="C25">
         <v>28.56</v>
       </c>
-      <c r="C25">
+      <c r="D25">
         <v>7200</v>
       </c>
-      <c r="D25">
+      <c r="E25">
         <v>11.424</v>
       </c>
     </row>
-    <row r="26" spans="1:4">
+    <row r="26" spans="1:5">
       <c r="A26">
         <v>18000</v>
       </c>
       <c r="B26">
+        <f t="shared" si="0"/>
+        <v>5469.66666</v>
+      </c>
+      <c r="C26">
         <v>28.87</v>
       </c>
-      <c r="C26">
+      <c r="D26">
         <v>7500</v>
       </c>
-      <c r="D26">
+      <c r="E26">
         <v>11.548</v>
       </c>
     </row>
-    <row r="27" spans="1:4">
+    <row r="27" spans="1:5">
       <c r="A27">
         <v>18750</v>
       </c>
       <c r="B27">
+        <f t="shared" si="0"/>
+        <v>5697.5694375</v>
+      </c>
+      <c r="C27">
         <v>28.67</v>
       </c>
-      <c r="C27">
+      <c r="D27">
         <v>7800</v>
       </c>
-      <c r="D27">
+      <c r="E27">
         <v>11.468</v>
       </c>
     </row>
-    <row r="28" spans="1:4">
+    <row r="28" spans="1:5">
       <c r="A28">
         <v>19500</v>
       </c>
       <c r="B28">
+        <f t="shared" si="0"/>
+        <v>5925.472215</v>
+      </c>
+      <c r="C28">
         <v>29.61</v>
       </c>
-      <c r="C28">
+      <c r="D28">
         <v>8100</v>
       </c>
-      <c r="D28">
+      <c r="E28">
         <v>11.844</v>
       </c>
     </row>
-    <row r="29" spans="1:4">
+    <row r="29" spans="1:5">
       <c r="A29">
         <v>20250</v>
       </c>
       <c r="B29">
+        <f t="shared" si="0"/>
+        <v>6153.3749925</v>
+      </c>
+      <c r="C29">
         <v>29.69</v>
       </c>
-      <c r="C29">
+      <c r="D29">
         <v>8400</v>
       </c>
-      <c r="D29">
+      <c r="E29">
         <v>11.876</v>
       </c>
     </row>
-    <row r="30" spans="1:4">
+    <row r="30" spans="1:5">
       <c r="A30">
         <v>21000</v>
       </c>
       <c r="B30">
+        <f t="shared" si="0"/>
+        <v>6381.27777</v>
+      </c>
+      <c r="C30">
         <v>28.98</v>
       </c>
-      <c r="C30">
+      <c r="D30">
         <v>8700</v>
       </c>
-      <c r="D30">
+      <c r="E30">
         <v>11.592</v>
       </c>
     </row>
-    <row r="31" spans="1:4">
+    <row r="31" spans="1:5">
       <c r="A31">
         <v>21750</v>
       </c>
       <c r="B31">
+        <f t="shared" si="0"/>
+        <v>6609.1805475</v>
+      </c>
+      <c r="C31">
         <v>29.02</v>
       </c>
-      <c r="C31">
+      <c r="D31">
         <v>9000</v>
       </c>
-      <c r="D31">
+      <c r="E31">
         <v>11.608</v>
       </c>
     </row>
-    <row r="32" spans="1:4">
+    <row r="32" spans="1:5">
       <c r="A32">
         <v>22500</v>
       </c>
       <c r="B32">
+        <f t="shared" si="0"/>
+        <v>6837.083325</v>
+      </c>
+      <c r="C32">
         <v>32.86</v>
       </c>
-      <c r="C32">
+      <c r="D32">
         <v>9300</v>
       </c>
-      <c r="D32">
+      <c r="E32">
         <v>13.144</v>
       </c>
     </row>
-    <row r="33" spans="1:4">
+    <row r="33" spans="1:5">
       <c r="A33">
         <v>23250</v>
       </c>
       <c r="B33">
+        <f t="shared" si="0"/>
+        <v>7064.9861025</v>
+      </c>
+      <c r="C33">
         <v>26.16</v>
       </c>
-      <c r="C33">
+      <c r="D33">
         <v>9600</v>
       </c>
-      <c r="D33">
+      <c r="E33">
         <v>10.464</v>
       </c>
     </row>
-    <row r="34" spans="1:4">
+    <row r="34" spans="1:5">
       <c r="A34">
         <v>24000</v>
       </c>
       <c r="B34">
+        <f t="shared" si="0"/>
+        <v>7292.88888</v>
+      </c>
+      <c r="C34">
         <v>32.55</v>
       </c>
-      <c r="C34">
+      <c r="D34">
         <v>9900</v>
       </c>
-      <c r="D34">
+      <c r="E34">
         <v>13.02</v>
       </c>
     </row>
-    <row r="35" spans="1:4">
+    <row r="35" spans="1:5">
       <c r="A35">
         <v>24750</v>
       </c>
       <c r="B35">
+        <f t="shared" ref="B35:B66" si="1">A35*0.30387037</f>
+        <v>7520.7916575</v>
+      </c>
+      <c r="C35">
         <v>31</v>
       </c>
-      <c r="C35">
+      <c r="D35">
         <v>10200</v>
       </c>
-      <c r="D35">
+      <c r="E35">
         <v>12.4</v>
       </c>
     </row>
-    <row r="36" spans="1:4">
+    <row r="36" spans="1:5">
       <c r="A36">
         <v>25500</v>
       </c>
       <c r="B36">
+        <f t="shared" si="1"/>
+        <v>7748.694435</v>
+      </c>
+      <c r="C36">
         <v>42.84</v>
       </c>
-      <c r="C36">
+      <c r="D36">
         <v>10500</v>
       </c>
-      <c r="D36">
+      <c r="E36">
         <v>17.136</v>
       </c>
     </row>
-    <row r="37" spans="1:4">
+    <row r="37" spans="1:5">
       <c r="A37">
         <v>26250</v>
       </c>
       <c r="B37">
+        <f t="shared" si="1"/>
+        <v>7976.5972125</v>
+      </c>
+      <c r="C37">
         <v>23.3</v>
       </c>
-      <c r="C37">
+      <c r="D37">
         <v>10800</v>
       </c>
-      <c r="D37">
+      <c r="E37">
         <v>9.32</v>
       </c>
     </row>
-    <row r="38" spans="1:4">
+    <row r="38" spans="1:5">
       <c r="A38">
         <v>27000</v>
       </c>
       <c r="B38">
+        <f t="shared" si="1"/>
+        <v>8204.49999</v>
+      </c>
+      <c r="C38">
         <v>20.88</v>
       </c>
-      <c r="C38">
+      <c r="D38">
         <v>11100</v>
       </c>
-      <c r="D38">
+      <c r="E38">
         <v>8.352</v>
       </c>
     </row>
-    <row r="39" spans="1:4">
+    <row r="39" spans="1:5">
       <c r="A39">
         <v>27750</v>
       </c>
       <c r="B39">
+        <f t="shared" si="1"/>
+        <v>8432.4027675</v>
+      </c>
+      <c r="C39">
         <v>22.87</v>
       </c>
-      <c r="C39">
+      <c r="D39">
         <v>11400</v>
       </c>
-      <c r="D39">
+      <c r="E39">
         <v>9.148</v>
       </c>
     </row>
-    <row r="40" spans="1:4">
+    <row r="40" spans="1:5">
       <c r="A40">
         <v>28500</v>
       </c>
       <c r="B40">
+        <f t="shared" si="1"/>
+        <v>8660.305545</v>
+      </c>
+      <c r="C40">
         <v>18.48</v>
       </c>
-      <c r="C40">
+      <c r="D40">
         <v>11700</v>
       </c>
-      <c r="D40">
+      <c r="E40">
         <v>7.392</v>
       </c>
     </row>
-    <row r="41" spans="1:4">
+    <row r="41" spans="1:5">
       <c r="A41">
         <v>29250</v>
       </c>
       <c r="B41">
+        <f t="shared" si="1"/>
+        <v>8888.2083225</v>
+      </c>
+      <c r="C41">
         <v>18.58</v>
       </c>
-      <c r="C41">
+      <c r="D41">
         <v>12000</v>
       </c>
-      <c r="D41">
+      <c r="E41">
         <v>7.43199999999999</v>
       </c>
     </row>
-    <row r="42" spans="1:4">
+    <row r="42" spans="1:5">
       <c r="A42">
         <v>30000</v>
       </c>
       <c r="B42">
+        <f t="shared" si="1"/>
+        <v>9116.1111</v>
+      </c>
+      <c r="C42">
         <v>23.9</v>
       </c>
-      <c r="C42">
+      <c r="D42">
         <v>12300</v>
       </c>
-      <c r="D42">
+      <c r="E42">
         <v>9.56</v>
       </c>
     </row>
-    <row r="43" spans="1:4">
+    <row r="43" spans="1:5">
       <c r="A43">
         <v>30750</v>
       </c>
       <c r="B43">
+        <f t="shared" si="1"/>
+        <v>9344.0138775</v>
+      </c>
+      <c r="C43">
         <v>19.14</v>
       </c>
-      <c r="C43">
+      <c r="D43">
         <v>12600</v>
       </c>
-      <c r="D43">
+      <c r="E43">
         <v>7.656</v>
       </c>
     </row>
-    <row r="44" spans="1:4">
+    <row r="44" spans="1:5">
       <c r="A44">
         <v>31500</v>
       </c>
       <c r="B44">
+        <f t="shared" si="1"/>
+        <v>9571.916655</v>
+      </c>
+      <c r="C44">
         <v>21.45</v>
       </c>
-      <c r="C44">
+      <c r="D44">
         <v>12900</v>
       </c>
-      <c r="D44">
+      <c r="E44">
         <v>8.58</v>
       </c>
     </row>
-    <row r="45" spans="1:4">
+    <row r="45" spans="1:5">
       <c r="A45">
         <v>32250</v>
       </c>
       <c r="B45">
+        <f t="shared" si="1"/>
+        <v>9799.8194325</v>
+      </c>
+      <c r="C45">
         <v>21.09</v>
       </c>
-      <c r="C45">
+      <c r="D45">
         <v>13200</v>
       </c>
-      <c r="D45">
+      <c r="E45">
         <v>8.436</v>
       </c>
     </row>
-    <row r="46" spans="1:4">
+    <row r="46" spans="1:5">
       <c r="A46">
         <v>33000</v>
       </c>
       <c r="B46">
+        <f t="shared" si="1"/>
+        <v>10027.72221</v>
+      </c>
+      <c r="C46">
         <v>20.51</v>
       </c>
-      <c r="C46">
+      <c r="D46">
         <v>13500</v>
       </c>
-      <c r="D46">
+      <c r="E46">
         <v>8.204</v>
       </c>
     </row>
-    <row r="47" spans="1:4">
+    <row r="47" spans="1:5">
       <c r="A47">
         <v>33750</v>
       </c>
       <c r="B47">
+        <f t="shared" si="1"/>
+        <v>10255.6249875</v>
+      </c>
+      <c r="C47">
         <v>19.82</v>
       </c>
-      <c r="C47">
+      <c r="D47">
         <v>13800</v>
       </c>
-      <c r="D47">
+      <c r="E47">
         <v>7.928</v>
       </c>
     </row>
-    <row r="48" spans="1:4">
+    <row r="48" spans="1:5">
       <c r="A48">
         <v>34500</v>
       </c>
       <c r="B48">
+        <f t="shared" si="1"/>
+        <v>10483.527765</v>
+      </c>
+      <c r="C48">
         <v>21.35</v>
       </c>
-      <c r="C48">
+      <c r="D48">
         <v>14100</v>
       </c>
-      <c r="D48">
+      <c r="E48">
         <v>8.54</v>
       </c>
     </row>
-    <row r="49" spans="1:4">
+    <row r="49" spans="1:5">
       <c r="A49">
         <v>35250</v>
       </c>
       <c r="B49">
+        <f t="shared" si="1"/>
+        <v>10711.4305425</v>
+      </c>
+      <c r="C49">
         <v>21.73</v>
       </c>
-      <c r="C49">
+      <c r="D49">
         <v>14400</v>
       </c>
-      <c r="D49">
+      <c r="E49">
         <v>8.692</v>
       </c>
     </row>
-    <row r="50" spans="1:4">
+    <row r="50" spans="1:5">
       <c r="A50">
         <v>36000</v>
       </c>
       <c r="B50">
+        <f t="shared" si="1"/>
+        <v>10939.33332</v>
+      </c>
+      <c r="C50">
         <v>20.77</v>
       </c>
-      <c r="C50">
+      <c r="D50">
         <v>14700</v>
       </c>
-      <c r="D50">
+      <c r="E50">
         <v>8.308</v>
       </c>
     </row>
-    <row r="51" spans="1:4">
+    <row r="51" spans="1:5">
       <c r="A51">
         <v>36750</v>
       </c>
       <c r="B51">
+        <f t="shared" si="1"/>
+        <v>11167.2360975</v>
+      </c>
+      <c r="C51">
         <v>23.35</v>
       </c>
-      <c r="C51">
+      <c r="D51">
         <v>15000</v>
       </c>
-      <c r="D51">
+      <c r="E51">
         <v>9.34</v>
       </c>
     </row>
-    <row r="52" spans="1:4">
+    <row r="52" spans="1:5">
       <c r="A52">
         <v>37500</v>
       </c>
       <c r="B52">
+        <f t="shared" si="1"/>
+        <v>11395.138875</v>
+      </c>
+      <c r="C52">
         <v>25.83</v>
       </c>
-      <c r="C52">
+      <c r="D52">
         <v>15300</v>
       </c>
-      <c r="D52">
+      <c r="E52">
         <v>10.332</v>
       </c>
     </row>
-    <row r="53" spans="1:4">
+    <row r="53" spans="1:5">
       <c r="A53">
         <v>38250</v>
       </c>
       <c r="B53">
+        <f t="shared" si="1"/>
+        <v>11623.0416525</v>
+      </c>
+      <c r="C53">
         <v>23.46</v>
       </c>
-      <c r="C53">
+      <c r="D53">
         <v>15600</v>
       </c>
-      <c r="D53">
+      <c r="E53">
         <v>9.384</v>
       </c>
     </row>
-    <row r="54" spans="1:4">
+    <row r="54" spans="1:5">
       <c r="A54">
         <v>39000</v>
       </c>
       <c r="B54">
+        <f t="shared" si="1"/>
+        <v>11850.94443</v>
+      </c>
+      <c r="C54">
         <v>29.25</v>
       </c>
-      <c r="C54">
+      <c r="D54">
         <v>15900</v>
       </c>
-      <c r="D54">
+      <c r="E54">
         <v>11.7</v>
       </c>
     </row>
-    <row r="55" spans="1:4">
+    <row r="55" spans="1:5">
       <c r="A55">
         <v>39750</v>
       </c>
       <c r="B55">
+        <f t="shared" si="1"/>
+        <v>12078.8472075</v>
+      </c>
+      <c r="C55">
         <v>21.81</v>
       </c>
-      <c r="C55">
+      <c r="D55">
         <v>16200</v>
       </c>
-      <c r="D55">
+      <c r="E55">
         <v>8.724</v>
       </c>
     </row>
-    <row r="56" spans="1:4">
+    <row r="56" spans="1:5">
       <c r="A56">
         <v>40500</v>
       </c>
       <c r="B56">
+        <f t="shared" si="1"/>
+        <v>12306.749985</v>
+      </c>
+      <c r="C56">
         <v>19.63</v>
       </c>
-      <c r="C56">
+      <c r="D56">
         <v>16500</v>
       </c>
-      <c r="D56">
+      <c r="E56">
         <v>7.852</v>
       </c>
     </row>
-    <row r="57" spans="1:4">
+    <row r="57" spans="1:5">
       <c r="A57">
         <v>41250</v>
       </c>
       <c r="B57">
+        <f t="shared" si="1"/>
+        <v>12534.6527625</v>
+      </c>
+      <c r="C57">
         <v>20.09</v>
       </c>
-      <c r="C57">
+      <c r="D57">
         <v>16800</v>
       </c>
-      <c r="D57">
+      <c r="E57">
         <v>8.036</v>
       </c>
     </row>
-    <row r="58" spans="1:4">
+    <row r="58" spans="1:5">
       <c r="A58">
         <v>42000</v>
       </c>
       <c r="B58">
+        <f t="shared" si="1"/>
+        <v>12762.55554</v>
+      </c>
+      <c r="C58">
         <v>25.27</v>
       </c>
-      <c r="C58">
+      <c r="D58">
         <v>17100</v>
       </c>
-      <c r="D58">
+      <c r="E58">
         <v>10.108</v>
       </c>
     </row>
-    <row r="59" spans="1:4">
+    <row r="59" spans="1:5">
       <c r="A59">
         <v>42750</v>
       </c>
       <c r="B59">
+        <f t="shared" si="1"/>
+        <v>12990.4583175</v>
+      </c>
+      <c r="C59">
         <v>20.68</v>
       </c>
-      <c r="C59">
+      <c r="D59">
         <v>17400</v>
       </c>
-      <c r="D59">
+      <c r="E59">
         <v>8.272</v>
       </c>
     </row>
-    <row r="60" spans="1:4">
+    <row r="60" spans="1:5">
       <c r="A60">
         <v>43500</v>
       </c>
       <c r="B60">
+        <f t="shared" si="1"/>
+        <v>13218.361095</v>
+      </c>
+      <c r="C60">
         <v>21.91</v>
       </c>
-      <c r="C60">
+      <c r="D60">
         <v>17700</v>
       </c>
-      <c r="D60">
+      <c r="E60">
         <v>8.764</v>
       </c>
     </row>
-    <row r="61" spans="1:4">
+    <row r="61" spans="1:5">
       <c r="A61">
         <v>44250</v>
       </c>
       <c r="B61">
+        <f t="shared" si="1"/>
+        <v>13446.2638725</v>
+      </c>
+      <c r="C61">
         <v>25.56</v>
       </c>
-      <c r="C61">
+      <c r="D61">
         <v>18000</v>
       </c>
-      <c r="D61">
+      <c r="E61">
         <v>10.224</v>
       </c>
     </row>
-    <row r="62" spans="1:4">
+    <row r="62" spans="1:5">
       <c r="A62">
         <v>45000</v>
       </c>
       <c r="B62">
+        <f t="shared" si="1"/>
+        <v>13674.16665</v>
+      </c>
+      <c r="C62">
         <v>20.19</v>
       </c>
-      <c r="C62">
+      <c r="D62">
         <v>18300</v>
       </c>
-      <c r="D62">
+      <c r="E62">
         <v>8.076</v>
       </c>
     </row>
-    <row r="63" spans="1:4">
+    <row r="63" spans="1:5">
       <c r="A63">
         <v>45750</v>
       </c>
       <c r="B63">
+        <f t="shared" si="1"/>
+        <v>13902.0694275</v>
+      </c>
+      <c r="C63">
         <v>22.28</v>
       </c>
-      <c r="C63">
+      <c r="D63">
         <v>18600</v>
       </c>
-      <c r="D63">
+      <c r="E63">
         <v>8.912</v>
       </c>
     </row>
-    <row r="64" spans="1:4">
+    <row r="64" spans="1:5">
       <c r="A64">
         <v>46500</v>
       </c>
       <c r="B64">
+        <f t="shared" si="1"/>
+        <v>14129.972205</v>
+      </c>
+      <c r="C64">
         <v>23.13</v>
       </c>
-      <c r="C64">
+      <c r="D64">
         <v>18900</v>
       </c>
-      <c r="D64">
+      <c r="E64">
         <v>9.252</v>
       </c>
     </row>
-    <row r="65" spans="1:4">
+    <row r="65" spans="1:5">
       <c r="A65">
         <v>47250</v>
       </c>
       <c r="B65">
+        <f t="shared" si="1"/>
+        <v>14357.8749825</v>
+      </c>
+      <c r="C65">
         <v>21.64</v>
       </c>
-      <c r="C65">
+      <c r="D65">
         <v>19200</v>
       </c>
-      <c r="D65">
+      <c r="E65">
         <v>8.656</v>
       </c>
     </row>
-    <row r="66" spans="1:4">
+    <row r="66" spans="1:5">
       <c r="A66">
         <v>48000</v>
       </c>
       <c r="B66">
+        <f t="shared" si="1"/>
+        <v>14585.77776</v>
+      </c>
+      <c r="C66">
         <v>23.32</v>
       </c>
-      <c r="C66">
+      <c r="D66">
         <v>19500</v>
       </c>
-      <c r="D66">
+      <c r="E66">
         <v>9.328</v>
       </c>
     </row>
-    <row r="67" spans="1:4">
+    <row r="67" spans="1:5">
       <c r="A67">
         <v>48750</v>
       </c>
       <c r="B67">
+        <f>A67*0.30387037</f>
+        <v>14813.6805375</v>
+      </c>
+      <c r="C67">
         <v>24.07</v>
       </c>
-      <c r="C67">
+      <c r="D67">
         <v>19800</v>
       </c>
-      <c r="D67">
+      <c r="E67">
         <v>9.628</v>
       </c>
     </row>
-    <row r="68" spans="1:4">
+    <row r="68" spans="1:5">
       <c r="A68">
         <v>49500</v>
       </c>
       <c r="B68">
+        <f>A68*0.30387037</f>
+        <v>15041.583315</v>
+      </c>
+      <c r="C68">
         <v>28.21</v>
       </c>
-      <c r="C68">
+      <c r="D68">
         <v>20100</v>
       </c>
-      <c r="D68">
+      <c r="E68">
         <v>11.284</v>
       </c>
     </row>
-    <row r="69" spans="1:4">
+    <row r="69" spans="1:5">
       <c r="A69">
         <v>50250</v>
       </c>
       <c r="B69">
+        <f>A69*0.30387037</f>
+        <v>15269.4860925</v>
+      </c>
+      <c r="C69">
         <v>20.59</v>
       </c>
-      <c r="C69">
+      <c r="D69">
         <v>20400</v>
       </c>
-      <c r="D69">
+      <c r="E69">
         <v>8.236</v>
       </c>
     </row>
-    <row r="70" spans="1:4">
+    <row r="70" spans="1:5">
       <c r="A70">
         <v>51000</v>
       </c>
       <c r="B70">
+        <f>A70*0.30387037</f>
+        <v>15497.38887</v>
+      </c>
+      <c r="C70">
         <v>23.68</v>
       </c>
-      <c r="C70">
+      <c r="D70">
         <v>20700</v>
       </c>
-      <c r="D70">
+      <c r="E70">
         <v>9.472</v>
       </c>
     </row>
-    <row r="71" spans="1:4">
+    <row r="71" spans="1:5">
       <c r="A71">
         <v>51750</v>
       </c>
       <c r="B71">
+        <f>A71*0.30387037</f>
+        <v>15725.2916475</v>
+      </c>
+      <c r="C71">
         <v>21.64</v>
       </c>
-      <c r="C71">
+      <c r="D71">
         <v>21000</v>
       </c>
-      <c r="D71">
+      <c r="E71">
         <v>8.656</v>
       </c>
     </row>
-    <row r="72" spans="1:4">
+    <row r="72" spans="1:5">
       <c r="A72">
         <v>52500</v>
       </c>
       <c r="B72">
+        <f>A72*0.30387037</f>
+        <v>15953.194425</v>
+      </c>
+      <c r="C72">
         <v>22.18</v>
       </c>
-      <c r="C72">
+      <c r="D72">
         <v>21300</v>
       </c>
-      <c r="D72">
+      <c r="E72">
         <v>8.872</v>
       </c>
     </row>
-    <row r="73" spans="1:4">
+    <row r="73" spans="1:5">
       <c r="A73">
         <v>53250</v>
       </c>
       <c r="B73">
+        <f>A73*0.30387037</f>
+        <v>16181.0972025</v>
+      </c>
+      <c r="C73">
         <v>25.86</v>
       </c>
-      <c r="C73">
+      <c r="D73">
         <v>21600</v>
       </c>
-      <c r="D73">
+      <c r="E73">
         <v>10.344</v>
       </c>
     </row>
-    <row r="74" spans="1:4">
+    <row r="74" spans="1:5">
       <c r="A74">
         <v>54000</v>
       </c>
       <c r="B74">
+        <f>A74*0.30387037</f>
+        <v>16408.99998</v>
+      </c>
+      <c r="C74">
         <v>12.3448275862068</v>
       </c>
-      <c r="C74">
+      <c r="D74">
         <v>21900</v>
       </c>
-      <c r="D74">
+      <c r="E74">
         <v>4.93793103448275</v>
       </c>
     </row>
